--- a/biology/Botanique/Christine_Buisman/Christine_Buisman.xlsx
+++ b/biology/Botanique/Christine_Buisman/Christine_Buisman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Buisman, née le 22 mars 1900 à Leeuwarden et morte le 27 mars 1936 à Amsterdam, est une phytopathologiste néerlandaise qui dédie sa courte carrière à l'étude de la graphiose de l'orme et à la sélection d'ormes résistants. En 1927, elle prouve que le champignon Graphium ulmi (renommé Ophiostoma ulmi en 1934) cause cette maladie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aînée de quatre enfants, elle grandit dans une famille libérale de Leeuwarden. Elle complète ses études secondaires au lycée local en 1919, puis étudie la biologie à Amsterdam, s'intéressant tout particulièrement à la flore marine. Pendant la session scolaire 1923-1924, elle participe aux cours pratiques du laboratoire de phytopathologie "Willie Commelin Scholten" à Baarn, une petite ville près d'Amsterdam. Elle travaille également comme assistante dans des institutions dirigées par le professeur Johanna Westerdijk (1883-1961), la première femme professeur aux Pays-Bas, et poursuit ses études à l'Université d'Utrecht où elle obtient son doctorat.
 À la fin de 1926, des fonds sont accordés pour de nouvelles recherches sur la cause de la maladie hollandaise de l'orme. Chargée de ce projet pour deux ans par Johanna Westerdijk, Buisman réserve une partie du jardin de sa villa pour y faire croître des plants d'orme. Pour infecter tant de plantes, elle expérimente l'utilisation d'une seringue, une méthode devenue courante ultérieurement. En 1927, elle parvient à produire à la fois la décoloration vasculaire et le flétrissement des feuilles en inoculant ses plants-tests plus tôt dans l'été que ce qu'avait fait Marie Beatrice Schol-Schwarz en 1921. Ainsi sont confirmés les résultats déjà obtenus par les travaux de Hans Wilhelm Wollenweber à Berlin, fournissant la preuve définitive de la cause de la maladie hollandaise de l'orme (graphiose de l'orme).
